--- a/app/config/tables/outroDia/forms/outroDia/outroDia.xlsx
+++ b/app/config/tables/outroDia/forms/outroDia/outroDia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\seguimento\forms\seguimento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\outroDia\forms\outroDia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295DC0B4-E415-4DD4-B4B9-D94E96DD61AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE12048F-15A5-478F-A6C4-6E4FD109256F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41160" yWindow="-2985" windowWidth="20760" windowHeight="13320" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -461,9 +461,6 @@
     <t>Se sim, preencha o formulario adequado e informar ao projecto</t>
   </si>
   <si>
-    <t>seguimento</t>
-  </si>
-  <si>
     <t>250mg/12,5mg Sulfadoxina-Pirimetamina</t>
   </si>
   <si>
@@ -513,9 +510,6 @@
   </si>
   <si>
     <t>Lista de outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos)</t>
-  </si>
-  <si>
-    <t>Seguimento</t>
   </si>
   <si>
     <t>integer</t>
@@ -852,12 +846,6 @@
     <t>!calculates.preciso() ? true : calculates.idade_mes()&lt;12 ? data('dose_AQ')=='1' : data('dose_AQ')=='2'</t>
   </si>
   <si>
-    <t>{id_estudo: data('id_estudo'), visitaformID: opendatakit.getCurrentInstanceId()}</t>
-  </si>
-  <si>
-    <t>{id_estudo: data('id_estudo'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), sexo: data('sexo'), date_rastreio:data('date_rastreio'), visitaformID: opendatakit.getCurrentInstanceId()}</t>
-  </si>
-  <si>
     <t>[ data('id_estudo') ]</t>
   </si>
   <si>
@@ -889,6 +877,18 @@
   </si>
   <si>
     <t>data_fomulario</t>
+  </si>
+  <si>
+    <t>outroDia</t>
+  </si>
+  <si>
+    <t>Seguimento de qualquer outro Dia</t>
+  </si>
+  <si>
+    <t>{id_estudo: data('id_estudo'), outrodiaformID: opendatakit.getCurrentInstanceId()}</t>
+  </si>
+  <si>
+    <t>{id_estudo: data('id_estudo'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), sexo: data('sexo'), date_rastreio:data('date_rastreio'), outrodiaformID: opendatakit.getCurrentInstanceId()}</t>
   </si>
 </sst>
 </file>
@@ -1532,17 +1532,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1553,15 +1553,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1569,20 +1569,20 @@
         <v>2020061301</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -1607,7 +1607,7 @@
       <selection pane="bottomRight" activeCell="F92" activeCellId="1" sqref="D92 F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
@@ -1628,7 +1628,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1657,10 +1657,10 @@
         <v>20</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1705,106 +1705,106 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D4" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.5">
       <c r="D5" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1812,31 +1812,31 @@
         <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
+      <c r="B14" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="15"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1844,67 +1844,67 @@
         <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
       <c r="D18" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B20" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22"/>
       <c r="D22" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23"/>
       <c r="D23" s="2" t="s">
         <v>9</v>
@@ -1913,13 +1913,13 @@
         <v>42</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A24"/>
       <c r="B24" s="2" t="s">
         <v>47</v>
@@ -1927,14 +1927,14 @@
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1942,13 +1942,13 @@
         <v>120</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
@@ -1956,13 +1956,13 @@
         <v>101</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
@@ -1970,13 +1970,13 @@
         <v>101</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
@@ -1984,13 +1984,13 @@
         <v>101</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
       <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
@@ -1998,27 +1998,27 @@
         <v>101</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
       <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
@@ -2026,13 +2026,13 @@
         <v>107</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
@@ -2040,13 +2040,13 @@
         <v>107</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
@@ -2054,13 +2054,13 @@
         <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
       <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
@@ -2068,23 +2068,23 @@
         <v>42</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B37" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15" t="s">
@@ -2092,14 +2092,14 @@
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>113</v>
       </c>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B39" s="15" t="s">
         <v>114</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="H39" s="15"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A40"/>
       <c r="B40" s="2" t="s">
         <v>47</v>
@@ -2119,7 +2119,7 @@
       <c r="D40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A41"/>
       <c r="D41" s="2" t="s">
         <v>9</v>
@@ -2134,18 +2134,18 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A42"/>
       <c r="B42" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D42" s="2"/>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B43" s="15" t="s">
         <v>46</v>
       </c>
@@ -2156,7 +2156,7 @@
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15" t="s">
@@ -2164,14 +2164,14 @@
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G44" s="15" t="s">
         <v>139</v>
       </c>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15" t="s">
@@ -2184,7 +2184,7 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B46" s="15" t="s">
         <v>47</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -2204,7 +2204,7 @@
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A48"/>
       <c r="B48" s="2" t="s">
         <v>48</v>
@@ -2212,23 +2212,23 @@
       <c r="D48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A49"/>
       <c r="D49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A50"/>
       <c r="B50" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B51" s="15" t="s">
         <v>46</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15" t="s">
@@ -2247,14 +2247,14 @@
       </c>
       <c r="E52" s="15"/>
       <c r="F52" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G52" s="15" t="s">
         <v>129</v>
       </c>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15" t="s">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>123</v>
@@ -2275,12 +2275,12 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B54" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
@@ -2288,7 +2288,7 @@
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15" t="s">
@@ -2296,17 +2296,17 @@
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H55" s="15"/>
       <c r="N55" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B56" s="15" t="s">
         <v>48</v>
       </c>
@@ -2317,7 +2317,7 @@
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15" t="s">
@@ -2325,14 +2325,14 @@
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>125</v>
       </c>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:14" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="110.25" x14ac:dyDescent="0.5">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15" t="s">
@@ -2342,20 +2342,20 @@
         <v>130</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G58" s="15" t="s">
         <v>126</v>
       </c>
       <c r="H58" s="15"/>
       <c r="L58" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15" t="s">
@@ -2365,56 +2365,56 @@
         <v>42</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G59" s="15" t="s">
         <v>127</v>
       </c>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B60" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D61" s="2" t="s">
         <v>124</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B62" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B64" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B65" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
       <c r="D66" s="15" t="s">
@@ -2424,19 +2424,19 @@
         <v>42</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G66" s="15" t="s">
         <v>136</v>
       </c>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B67" s="15" t="s">
         <v>121</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
@@ -2444,7 +2444,7 @@
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B68" s="15" t="s">
         <v>46</v>
       </c>
@@ -2455,7 +2455,7 @@
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
     </row>
-    <row r="69" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
       <c r="D69" s="15" t="s">
@@ -2463,14 +2463,14 @@
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H69" s="15"/>
     </row>
-    <row r="70" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15" t="s">
@@ -2483,7 +2483,7 @@
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B71" s="15" t="s">
         <v>47</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
     </row>
-    <row r="72" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B72" s="15" t="s">
         <v>122</v>
       </c>
@@ -2505,36 +2505,36 @@
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B73" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D74" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D75" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.5">
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
@@ -2543,33 +2543,33 @@
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D77" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D78" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.5">
       <c r="D80" s="2" t="s">
         <v>9</v>
       </c>
@@ -2577,24 +2577,24 @@
         <v>42</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D81" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B82" s="15" t="s">
         <v>47</v>
       </c>
@@ -2605,113 +2605,113 @@
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B83" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A84" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:23" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B85" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D86" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B87" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A89" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D90" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P90" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="W90" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D91" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="P91" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W91" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D92" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P92" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="W92" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D95" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2731,11 +2731,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D237"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -2743,7 +2743,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>79</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
@@ -2801,11 +2801,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -2827,15 +2827,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2857,10 +2857,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -2944,14 +2944,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -2984,15 +2984,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>84</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
         <v>88</v>
       </c>
@@ -3025,17 +3025,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>93</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
         <v>93</v>
       </c>
@@ -3068,14 +3068,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
         <v>94</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
         <v>94</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
@@ -3119,15 +3119,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
         <v>120</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
         <v>120</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
         <v>120</v>
       </c>
@@ -3160,10 +3160,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="1" t="s">
         <v>101</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="1" t="s">
         <v>101</v>
       </c>
@@ -3196,13 +3196,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="1" t="s">
         <v>107</v>
       </c>
@@ -3235,13 +3235,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="1" t="s">
         <v>128</v>
       </c>
@@ -3249,10 +3249,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="1" t="s">
         <v>128</v>
       </c>
@@ -3260,16 +3260,16 @@
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="1" t="s">
         <v>130</v>
       </c>
@@ -3277,10 +3277,10 @@
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="1" t="s">
         <v>130</v>
       </c>
@@ -3288,445 +3288,445 @@
         <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B69" s="2">
         <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B70" s="2">
         <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B71" s="2">
         <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B72" s="2">
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A74" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B75" s="2">
         <v>2</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B76" s="2">
         <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
@@ -3748,10 +3748,10 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -3765,7 +3765,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -3814,19 +3814,19 @@
         <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" s="15" t="s">
         <v>133</v>
       </c>
@@ -3840,13 +3840,13 @@
         <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="H3" t="s">
         <v>135</v>
@@ -3867,14 +3867,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -3929,13 +3929,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -3943,132 +3943,132 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
         <v>222</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
         <v>224</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
         <v>226</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
         <v>228</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" t="s">
         <v>230</v>
       </c>
-      <c r="B10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>264</v>
-      </c>
-      <c r="B11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" t="s">
         <v>274</v>
-      </c>
-      <c r="B12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>267</v>
-      </c>
-      <c r="B14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>258</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>279</v>
-      </c>
-      <c r="B17" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4081,17 +4081,17 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A50" sqref="A50:B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4099,15 +4099,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -4123,15 +4123,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="20" t="s">
         <v>9</v>
       </c>
@@ -4139,39 +4139,39 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="21" t="s">
         <v>9</v>
       </c>
@@ -4179,143 +4179,143 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="16" t="s">
         <v>9</v>
       </c>
@@ -4323,132 +4323,132 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="17" t="s">
         <v>57</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="17" t="s">
         <v>124</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="16" t="s">
         <v>124</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A49" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/outroDia/forms/outroDia/outroDia.xlsx
+++ b/app/config/tables/outroDia/forms/outroDia/outroDia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\outroDia\forms\outroDia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE12048F-15A5-478F-A6C4-6E4FD109256F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970647D8-060F-4210-AD94-56784715F0F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="8685" windowWidth="19500" windowHeight="10185" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="259">
   <si>
     <t>type</t>
   </si>
@@ -410,33 +410,12 @@
     <t>end if // medi_previo</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>Hora</t>
-  </si>
-  <si>
-    <t>Doses</t>
-  </si>
-  <si>
-    <t>Vomitou?</t>
-  </si>
-  <si>
     <t>doseSP</t>
   </si>
   <si>
-    <t>Amodiaquina</t>
-  </si>
-  <si>
     <t>doseAQ</t>
   </si>
   <si>
-    <t>A hora que vomitou AQ?</t>
-  </si>
-  <si>
     <t>Presença de sinais de perigo/paludismo severo ou complicado?</t>
   </si>
   <si>
@@ -581,27 +560,6 @@
     <t>nota_evento</t>
   </si>
   <si>
-    <t>aq</t>
-  </si>
-  <si>
-    <t>date_AQ</t>
-  </si>
-  <si>
-    <t>hora_AQ</t>
-  </si>
-  <si>
-    <t>dose_AQ</t>
-  </si>
-  <si>
-    <t>vomitou_AQ</t>
-  </si>
-  <si>
-    <t>data('vomitou_AQ')=='1'</t>
-  </si>
-  <si>
-    <t>hora_vomito_AQ</t>
-  </si>
-  <si>
     <t>outro_medicamento</t>
   </si>
   <si>
@@ -654,18 +612,6 @@
   </si>
   <si>
     <t>id_estudo</t>
-  </si>
-  <si>
-    <t>if // aq</t>
-  </si>
-  <si>
-    <t>end if //aq</t>
-  </si>
-  <si>
-    <t>if // vomito</t>
-  </si>
-  <si>
-    <t>end if //vomito</t>
   </si>
   <si>
     <t>&lt;h2 style="text-align:center;background-color:#FA0;padding:15px;"&gt;  
@@ -691,9 +637,6 @@
     <t>display.adate.toYear</t>
   </si>
   <si>
-    <t>A dose selecionada nao corresponde com a do idade da crianca</t>
-  </si>
-  <si>
     <t>date_rastreio</t>
   </si>
   <si>
@@ -769,9 +712,6 @@
     <t>dia_programado</t>
   </si>
   <si>
-    <t>!calculates.dia_programado()</t>
-  </si>
-  <si>
     <t>outro_dia</t>
   </si>
   <si>
@@ -800,15 +740,6 @@
   </si>
   <si>
     <t>no_dateAQ</t>
-  </si>
-  <si>
-    <t>erro_dateAQ</t>
-  </si>
-  <si>
-    <t>Por favor verifica a data introduzida</t>
-  </si>
-  <si>
-    <t>calculates.no_dateAQ()</t>
   </si>
   <si>
     <t>naosabe</t>
@@ -843,9 +774,6 @@
     <t>preciso</t>
   </si>
   <si>
-    <t>!calculates.preciso() ? true : calculates.idade_mes()&lt;12 ? data('dose_AQ')=='1' : data('dose_AQ')=='2'</t>
-  </si>
-  <si>
     <t>[ data('id_estudo') ]</t>
   </si>
   <si>
@@ -889,6 +817,9 @@
   </si>
   <si>
     <t>{id_estudo: data('id_estudo'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), sexo: data('sexo'), date_rastreio:data('date_rastreio'), outrodiaformID: opendatakit.getCurrentInstanceId()}</t>
+  </si>
+  <si>
+    <t>""+ data('id_estudo') + "D" + calculates.visita_id()</t>
   </si>
 </sst>
 </file>
@@ -1535,14 +1466,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1553,15 +1484,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1569,20 +1500,20 @@
         <v>2020061301</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -1598,16 +1529,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y95"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F92" activeCellId="1" sqref="D92 F92"/>
+      <selection pane="bottomRight" activeCell="A50" sqref="A50:XFD65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
@@ -1628,7 +1559,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1657,10 +1588,10 @@
         <v>20</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1705,106 +1636,97 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>242</v>
-      </c>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:25" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1812,31 +1734,31 @@
         <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="15"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1844,67 +1766,67 @@
         <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="D22" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="D23" s="2" t="s">
         <v>9</v>
@@ -1913,13 +1835,13 @@
         <v>42</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" s="2" t="s">
         <v>47</v>
@@ -1927,14 +1849,14 @@
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1942,13 +1864,13 @@
         <v>120</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
@@ -1956,13 +1878,13 @@
         <v>101</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
@@ -1970,13 +1892,13 @@
         <v>101</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
@@ -1984,13 +1906,13 @@
         <v>101</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
@@ -1998,27 +1920,27 @@
         <v>101</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
@@ -2026,13 +1948,13 @@
         <v>107</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
@@ -2040,13 +1962,13 @@
         <v>107</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
@@ -2054,13 +1976,13 @@
         <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
@@ -2068,23 +1990,23 @@
         <v>42</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15" t="s">
@@ -2092,14 +2014,14 @@
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>113</v>
       </c>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:13" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
         <v>114</v>
       </c>
@@ -2111,7 +2033,7 @@
       <c r="H39" s="15"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40" s="2" t="s">
         <v>47</v>
@@ -2119,7 +2041,7 @@
       <c r="D40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="D41" s="2" t="s">
         <v>9</v>
@@ -2128,24 +2050,24 @@
         <v>42</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D42" s="2"/>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" s="15" t="s">
         <v>46</v>
       </c>
@@ -2156,7 +2078,7 @@
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15" t="s">
@@ -2164,27 +2086,27 @@
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
         <v>47</v>
       </c>
@@ -2195,7 +2117,7 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -2204,7 +2126,7 @@
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48" s="2" t="s">
         <v>48</v>
@@ -2212,103 +2134,94 @@
       <c r="D48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="D49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A50"/>
-      <c r="B50" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B51" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="15"/>
+        <v>121</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>174</v>
+      </c>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B52" s="15"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="C52" s="15"/>
-      <c r="D52" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="D52" s="15"/>
       <c r="E52" s="15"/>
-      <c r="F52" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>129</v>
-      </c>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="15" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="H53" s="15"/>
-      <c r="J53" s="2">
-        <v>2020</v>
-      </c>
-      <c r="K53" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B54" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
+    </row>
+    <row r="54" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B55" s="15"/>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="D55" s="15"/>
       <c r="E55" s="15"/>
-      <c r="F55" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>254</v>
-      </c>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
       <c r="H55" s="15"/>
-      <c r="N55" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.5">
+    </row>
+    <row r="56" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B56" s="15" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -2317,401 +2230,213 @@
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D62" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D65" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B66" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H57" s="15"/>
-    </row>
-    <row r="58" spans="1:14" ht="110.25" x14ac:dyDescent="0.5">
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="L58" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="H59" s="15"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B60" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D61" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B62" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B64" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B65" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H66" s="15"/>
-    </row>
-    <row r="67" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B67" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B68" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-    </row>
-    <row r="69" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="H69" s="15"/>
-    </row>
-    <row r="70" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B71" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-    </row>
-    <row r="72" spans="2:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B72" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B73" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D74" s="2" t="s">
-        <v>56</v>
+        <v>236</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G74" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P74" t="s">
+        <v>206</v>
+      </c>
+      <c r="W74" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D75" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D75" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D77" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D78" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D79" s="2"/>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.5">
-      <c r="D80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="D81" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F81" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B82" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B83" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A84" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="B85" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C85" s="2" t="s">
+      <c r="P75" t="s">
         <v>192</v>
       </c>
-      <c r="D85" s="2"/>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="D86" s="2" t="s">
+      <c r="W75" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D76" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="P76" t="s">
+        <v>248</v>
+      </c>
+      <c r="W76" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D79" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="B87" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="A89" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="D90" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="P90" t="s">
-        <v>225</v>
-      </c>
-      <c r="W90" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="D91" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="P91" t="s">
-        <v>210</v>
-      </c>
-      <c r="W91" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="D92" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="P92" t="s">
-        <v>272</v>
-      </c>
-      <c r="W92" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.5">
-      <c r="D95" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>194</v>
+      <c r="F79" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2731,11 +2456,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -2743,7 +2468,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2757,7 +2482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -2768,7 +2493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2779,7 +2504,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>79</v>
       </c>
@@ -2790,7 +2515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
@@ -2801,11 +2526,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -2816,7 +2541,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -2827,15 +2552,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -2846,7 +2571,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2857,10 +2582,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
@@ -2874,7 +2599,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -2888,7 +2613,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
@@ -2902,7 +2627,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -2916,7 +2641,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,7 +2655,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -2944,14 +2669,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -2962,7 +2687,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>82</v>
       </c>
@@ -2973,7 +2698,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>82</v>
       </c>
@@ -2984,15 +2709,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>84</v>
       </c>
@@ -3003,7 +2728,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -3014,7 +2739,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>88</v>
       </c>
@@ -3025,17 +2750,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
@@ -3046,7 +2771,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>93</v>
       </c>
@@ -3057,7 +2782,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>93</v>
       </c>
@@ -3068,14 +2793,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>94</v>
       </c>
@@ -3086,7 +2811,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>94</v>
       </c>
@@ -3097,7 +2822,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -3108,7 +2833,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
@@ -3119,15 +2844,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>120</v>
       </c>
@@ -3138,7 +2863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>120</v>
       </c>
@@ -3149,7 +2874,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>120</v>
       </c>
@@ -3160,10 +2885,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>101</v>
       </c>
@@ -3174,7 +2899,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
@@ -3185,7 +2910,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>101</v>
       </c>
@@ -3196,13 +2921,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
@@ -3213,7 +2938,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
@@ -3224,7 +2949,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>107</v>
       </c>
@@ -3235,498 +2960,498 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2">
         <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B65" s="2">
         <v>2</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B69" s="2">
         <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B70" s="2">
         <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B71" s="2">
         <v>4</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B72" s="2">
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B75" s="2">
         <v>2</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B76" s="2">
         <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
@@ -3751,7 +3476,7 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -3765,7 +3490,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
@@ -3800,56 +3525,56 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
         <v>137</v>
       </c>
-      <c r="B2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
         <v>137</v>
       </c>
-      <c r="D2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A3" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" t="s">
-        <v>144</v>
-      </c>
       <c r="F3" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3867,14 +3592,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
@@ -3888,7 +3613,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -3902,7 +3627,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -3926,16 +3651,16 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -3943,132 +3668,132 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" t="s">
         <v>211</v>
       </c>
-      <c r="B3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>265</v>
-      </c>
-      <c r="B14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4079,19 +3804,19 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:B50"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4099,15 +3824,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
@@ -4115,7 +3840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -4123,15 +3848,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>9</v>
       </c>
@@ -4139,39 +3864,39 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>9</v>
       </c>
@@ -4179,276 +3904,236 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="17" t="s">
+      <c r="B35" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="B36" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="16" t="s">
+      <c r="B41" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="2" t="s">
+      <c r="B42" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B45" s="2" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>277</v>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/outroDia/forms/outroDia/outroDia.xlsx
+++ b/app/config/tables/outroDia/forms/outroDia/outroDia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\outroDia\forms\outroDia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\tables\outroDia\forms\outroDia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970647D8-060F-4210-AD94-56784715F0F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0465754E-C2E7-45DE-87AB-3255CE3D9BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="8685" windowWidth="19500" windowHeight="10185" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="332">
   <si>
     <t>type</t>
   </si>
@@ -254,12 +254,6 @@
     <t>Bambadinca</t>
   </si>
   <si>
-    <t>Cossé</t>
-  </si>
-  <si>
-    <t>Mafanco</t>
-  </si>
-  <si>
     <t>Pitche</t>
   </si>
   <si>
@@ -269,15 +263,9 @@
     <t>bambadinca</t>
   </si>
   <si>
-    <t>mafanco</t>
-  </si>
-  <si>
     <t>pitche</t>
   </si>
   <si>
-    <t>cosse</t>
-  </si>
-  <si>
     <t>DOB_ou_idade</t>
   </si>
   <si>
@@ -404,12 +392,6 @@
     <t>quantidade</t>
   </si>
   <si>
-    <t>if // medi_previo</t>
-  </si>
-  <si>
-    <t>end if // medi_previo</t>
-  </si>
-  <si>
     <t>doseSP</t>
   </si>
   <si>
@@ -464,9 +446,6 @@
     <t>ausente</t>
   </si>
   <si>
-    <t>a Criança na se encontra em casa</t>
-  </si>
-  <si>
     <t>A família está de viagem</t>
   </si>
   <si>
@@ -561,9 +540,6 @@
   </si>
   <si>
     <t>outro_medicamento</t>
-  </si>
-  <si>
-    <t>data('outro_medicamento')=='1'</t>
   </si>
   <si>
     <t>outros_medicamentos</t>
@@ -688,9 +664,6 @@
     <t>Colheu-se amostra de sangue para a lâmina?</t>
   </si>
   <si>
-    <t>Código: {{calculates.id_lamina}}</t>
-  </si>
-  <si>
     <t>nota_lab</t>
   </si>
   <si>
@@ -810,9 +783,6 @@
     <t>outroDia</t>
   </si>
   <si>
-    <t>Seguimento de qualquer outro Dia</t>
-  </si>
-  <si>
     <t>{id_estudo: data('id_estudo'), outrodiaformID: opendatakit.getCurrentInstanceId()}</t>
   </si>
   <si>
@@ -820,6 +790,255 @@
   </si>
   <si>
     <t>""+ data('id_estudo') + "D" + calculates.visita_id()</t>
+  </si>
+  <si>
+    <t>Formulario de seguimento de qualquer outro dia</t>
+  </si>
+  <si>
+    <t>outros_med</t>
+  </si>
+  <si>
+    <t>data('presenca')=='1'</t>
+  </si>
+  <si>
+    <t>if // outro_medi</t>
+  </si>
+  <si>
+    <t>data('outros_med')=='2'</t>
+  </si>
+  <si>
+    <t>goto lab</t>
+  </si>
+  <si>
+    <t>else // outro_medi</t>
+  </si>
+  <si>
+    <t>med_adm1</t>
+  </si>
+  <si>
+    <t>Nome do Medicamento</t>
+  </si>
+  <si>
+    <t>data('outros_med')=='1'</t>
+  </si>
+  <si>
+    <t>date_adm1</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>hora_adm1</t>
+  </si>
+  <si>
+    <t>Hora</t>
+  </si>
+  <si>
+    <t>dose_adm1</t>
+  </si>
+  <si>
+    <t>Nº de comprimido</t>
+  </si>
+  <si>
+    <t>vomitou_adm1</t>
+  </si>
+  <si>
+    <t>Vomitou?</t>
+  </si>
+  <si>
+    <t>data('vomitou_adm1')=='1'</t>
+  </si>
+  <si>
+    <t>hora_vomito_adm1</t>
+  </si>
+  <si>
+    <t>A hora que vomitou S.P?</t>
+  </si>
+  <si>
+    <t>calculates.erro_data1()</t>
+  </si>
+  <si>
+    <t>erro_data1</t>
+  </si>
+  <si>
+    <t>Não se admite falta de informação na datas e nem as datas no futuro</t>
+  </si>
+  <si>
+    <t>Por favor verifica verifica de novo a data introduzida</t>
+  </si>
+  <si>
+    <t>!calculates.erro_data1()</t>
+  </si>
+  <si>
+    <t>outro_med2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para alem de {{data.med_adm1}} toma outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos) </t>
+  </si>
+  <si>
+    <t>data('outro_med2')=='2'</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>med_adm2</t>
+  </si>
+  <si>
+    <t>data('outros_med2')=='1'</t>
+  </si>
+  <si>
+    <t>date_adm2</t>
+  </si>
+  <si>
+    <t>hora_adm2</t>
+  </si>
+  <si>
+    <t>dose_adm2</t>
+  </si>
+  <si>
+    <t>vomitou_adm2</t>
+  </si>
+  <si>
+    <t>data('vomitou_adm2')=='1'</t>
+  </si>
+  <si>
+    <t>hora_vomito_adm2</t>
+  </si>
+  <si>
+    <t>calculates.erro_data2()</t>
+  </si>
+  <si>
+    <t>erro_data2</t>
+  </si>
+  <si>
+    <t>!calculates.erro_data2()</t>
+  </si>
+  <si>
+    <t>outro_med3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para alem de {{data.med_adm1}}  e {{data.med_adm2}} toma outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos) </t>
+  </si>
+  <si>
+    <t>data('outro_med3')=='2'</t>
+  </si>
+  <si>
+    <t>med_adm3</t>
+  </si>
+  <si>
+    <t>data('outros_med3')=='1'</t>
+  </si>
+  <si>
+    <t>date_adm3</t>
+  </si>
+  <si>
+    <t>hora_adm3</t>
+  </si>
+  <si>
+    <t>dose_adm3</t>
+  </si>
+  <si>
+    <t>vomitou_adm3</t>
+  </si>
+  <si>
+    <t>data('vomitou_adm3')=='1'</t>
+  </si>
+  <si>
+    <t>hora_vomito_adm3</t>
+  </si>
+  <si>
+    <t>calculates.erro_data3()</t>
+  </si>
+  <si>
+    <t>erro_data3</t>
+  </si>
+  <si>
+    <t>!calculates.erro_data3()</t>
+  </si>
+  <si>
+    <t>outro_med4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para alem de {{data.med_adm1}} , {{data.med_adm2}}  e {{data.med_adm3}} toma outros medicamentos administrados ( antipalúdicos, antibióticos ou anlgésicos) </t>
+  </si>
+  <si>
+    <t>data('outro_med4')=='2'</t>
+  </si>
+  <si>
+    <t>med_adm4</t>
+  </si>
+  <si>
+    <t>data('outros_med4')=='1'</t>
+  </si>
+  <si>
+    <t>date_adm4</t>
+  </si>
+  <si>
+    <t>hora_adm4</t>
+  </si>
+  <si>
+    <t>dose_adm4</t>
+  </si>
+  <si>
+    <t>vomitou_adm4</t>
+  </si>
+  <si>
+    <t>data('vomitou_adm4')=='1'</t>
+  </si>
+  <si>
+    <t>hora_vomito_adm4</t>
+  </si>
+  <si>
+    <t>calculates.erro_data4()</t>
+  </si>
+  <si>
+    <t>erro_data4</t>
+  </si>
+  <si>
+    <t>!calculates.erro_data4()</t>
+  </si>
+  <si>
+    <t>end if // outro_medi</t>
+  </si>
+  <si>
+    <t>yesnodk</t>
+  </si>
+  <si>
+    <t>Não sabe</t>
+  </si>
+  <si>
+    <t>ganmamudo</t>
+  </si>
+  <si>
+    <t>Gã-Mamudo</t>
+  </si>
+  <si>
+    <t>sonaco</t>
+  </si>
+  <si>
+    <t>Sonaco</t>
+  </si>
+  <si>
+    <t>A criança na se encontra em casa</t>
+  </si>
+  <si>
+    <t>se não for tomada coloca 888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('temperatura')==888 || (data('temperatura')&gt;=34  &amp;&amp; data('temperatura')&lt;=43) </t>
+  </si>
+  <si>
+    <t>clicando no botao "Create new instance" ou "Criar nova instancia"</t>
+  </si>
+  <si>
+    <t>Código:{{data.id_estudo}}     |     D{{calculates.visita_id}}</t>
+  </si>
+  <si>
+    <t>lab</t>
   </si>
 </sst>
 </file>
@@ -900,7 +1119,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -922,6 +1141,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,7 +1209,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1039,6 +1264,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1463,7 +1698,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1489,7 +1724,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1497,7 +1732,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>2020061301</v>
+        <v>2020071900</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,7 +1740,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1513,7 +1748,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1529,13 +1764,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y163"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50:XFD65"/>
+      <selection pane="bottomRight" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1588,10 +1823,10 @@
         <v>20</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1652,10 +1887,10 @@
         <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.25">
@@ -1663,10 +1898,10 @@
         <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1678,13 +1913,16 @@
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
+      </c>
+      <c r="N7" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -1692,7 +1930,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
@@ -1702,10 +1940,13 @@
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -1734,27 +1975,27 @@
         <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="N13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="15"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
     </row>
@@ -1766,67 +2007,73 @@
         <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="D22" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="D23" s="2" t="s">
         <v>9</v>
@@ -1835,13 +2082,16 @@
         <v>42</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" s="2" t="s">
         <v>47</v>
@@ -1849,126 +2099,147 @@
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N29" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
@@ -1976,13 +2247,16 @@
         <v>42</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
@@ -1990,23 +2264,26 @@
         <v>42</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15" t="s">
@@ -2014,16 +2291,19 @@
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="15" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H38" s="15"/>
-    </row>
-    <row r="39" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="N38" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -2033,7 +2313,7 @@
       <c r="H39" s="15"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40" s="2" t="s">
         <v>47</v>
@@ -2041,7 +2321,7 @@
       <c r="D40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="D41" s="2" t="s">
         <v>9</v>
@@ -2050,24 +2330,27 @@
         <v>42</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D42" s="2"/>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" s="15" t="s">
         <v>46</v>
       </c>
@@ -2078,7 +2361,7 @@
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15" t="s">
@@ -2086,27 +2369,30 @@
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H44" s="15"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I44" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
         <v>47</v>
       </c>
@@ -2117,7 +2403,7 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -2126,7 +2412,7 @@
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48" s="2" t="s">
         <v>48</v>
@@ -2134,12 +2420,12 @@
       <c r="D48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="D49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15" t="s">
@@ -2149,294 +2435,1156 @@
         <v>42</v>
       </c>
       <c r="F50" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="N50" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="M51" s="26"/>
+    </row>
+    <row r="52" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="M52" s="26"/>
+    </row>
+    <row r="53" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="M53" s="26"/>
+    </row>
+    <row r="54" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B54" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="M54" s="26"/>
+    </row>
+    <row r="55" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="M55" s="26"/>
+    </row>
+    <row r="56" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="M56" s="26"/>
+    </row>
+    <row r="57" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="H57" s="25"/>
+      <c r="M57" s="26"/>
+    </row>
+    <row r="58" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="H58" s="25"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="J59" s="24">
+        <v>2020</v>
+      </c>
+      <c r="K59" s="24">
+        <v>2020</v>
+      </c>
+      <c r="M59" s="26"/>
+      <c r="N59" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="H61" s="25"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="H62" s="25"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="M63" s="26"/>
+      <c r="N63" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="M64" s="26"/>
+    </row>
+    <row r="65" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="M65" s="26"/>
+      <c r="N65" s="24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="M66" s="26"/>
+    </row>
+    <row r="67" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M67" s="26"/>
+    </row>
+    <row r="68" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="M68" s="26"/>
+    </row>
+    <row r="69" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D69" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="I69" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="L69" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="M69" s="26"/>
+    </row>
+    <row r="70" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="M70" s="26"/>
+    </row>
+    <row r="71" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M71" s="26"/>
+    </row>
+    <row r="72" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D72" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="M72" s="26"/>
+      <c r="N72" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="M73" s="26"/>
+    </row>
+    <row r="74" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="M74" s="26"/>
+    </row>
+    <row r="75" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="M75" s="26"/>
+    </row>
+    <row r="76" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D77" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="G77" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="N77" s="25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="G78" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="J78" s="27">
+        <v>2020</v>
+      </c>
+      <c r="K78" s="27">
+        <v>2020</v>
+      </c>
+      <c r="N78" s="25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="G79" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="N79" s="25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="G80" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="N80" s="25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F81" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="G81" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="N81" s="25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D83" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F83" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="G83" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="N83" s="27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="G88" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="I88" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="L88" s="27" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M90" s="26"/>
+    </row>
+    <row r="91" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D91" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="G91" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="M91" s="26"/>
+      <c r="N91" s="25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="M92" s="26"/>
+    </row>
+    <row r="93" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="M93" s="26"/>
+    </row>
+    <row r="94" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="M94" s="26"/>
+    </row>
+    <row r="95" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M95" s="26"/>
+    </row>
+    <row r="96" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M96" s="26"/>
+    </row>
+    <row r="97" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D98" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F98" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="G98" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="N98" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D99" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F99" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="G99" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="J99" s="27">
+        <v>2020</v>
+      </c>
+      <c r="K99" s="27">
+        <v>2020</v>
+      </c>
+      <c r="N99" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D100" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F100" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="G100" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="N100" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D101" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="G101" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="N101" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D102" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F102" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="G102" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="N102" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D104" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F104" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="G104" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="N104" s="27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108" s="27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D109" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F109" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="G109" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="I109" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="L109" s="27" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="2:14" s="24" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D112" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F112" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G112" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="M112" s="26"/>
+      <c r="N112" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="M113" s="26"/>
+    </row>
+    <row r="114" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="M114" s="26"/>
+    </row>
+    <row r="115" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="M115" s="26"/>
+    </row>
+    <row r="116" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D119" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F119" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="G119" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="N119" s="25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D120" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F120" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="G120" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="J120" s="27">
+        <v>2020</v>
+      </c>
+      <c r="K120" s="27">
+        <v>2020</v>
+      </c>
+      <c r="N120" s="25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D121" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F121" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="G121" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="N121" s="25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D122" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="G122" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="N122" s="25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D123" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F123" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="G123" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="N123" s="25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C124" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D125" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="F125" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="G125" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="N125" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" s="27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D130" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F130" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="G130" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="I130" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="L130" s="27" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M132" s="26"/>
+    </row>
+    <row r="133" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="25"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="25"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="25"/>
+      <c r="M133" s="26"/>
+    </row>
+    <row r="134" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+      <c r="M134" s="26"/>
+    </row>
+    <row r="135" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C135" s="25"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
+      <c r="M135" s="26"/>
+    </row>
+    <row r="136" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="25"/>
+      <c r="F136" s="25"/>
+      <c r="G136" s="25"/>
+      <c r="H136" s="25"/>
+      <c r="M136" s="26"/>
+    </row>
+    <row r="137" spans="1:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B137" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="M137" s="26"/>
+    </row>
+    <row r="138" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="25"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="25"/>
+      <c r="E138" s="25"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="25"/>
+      <c r="H138" s="25"/>
+      <c r="M138" s="26"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="F140" s="2"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B141" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="F141" s="2"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D142" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D143" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D145" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D146" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D147" s="2"/>
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N148" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D149" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B150" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B151" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G50" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="H50" s="15"/>
-    </row>
-    <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="15" t="s">
+      <c r="D151" s="2"/>
+      <c r="F151" s="2"/>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N152" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B153" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D153" s="2"/>
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+      <c r="D154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="N154" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B155" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="F155" s="2"/>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-    </row>
-    <row r="53" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="H53" s="15"/>
-    </row>
-    <row r="54" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-    </row>
-    <row r="56" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B56" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D58" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D59" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D61" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D62" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" s="2" t="s">
+      <c r="D157" s="2"/>
+      <c r="F157" s="2"/>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D158" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P158" t="s">
+        <v>198</v>
+      </c>
+      <c r="W158" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D159" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="P159" t="s">
+        <v>184</v>
+      </c>
+      <c r="W159" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D160" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F160" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D63" s="2"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D65" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B66" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D70" s="2" t="s">
+      <c r="P160" t="s">
+        <v>239</v>
+      </c>
+      <c r="W160" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D163" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D74" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="P74" t="s">
-        <v>206</v>
-      </c>
-      <c r="W74" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D75" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="P75" t="s">
-        <v>192</v>
-      </c>
-      <c r="W75" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D76" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="P76" t="s">
-        <v>248</v>
-      </c>
-      <c r="W76" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D79" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>180</v>
+      <c r="F163" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2454,10 +3602,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2506,7 +3654,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -2517,7 +3665,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -2557,576 +3705,599 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>320</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>320</v>
+      </c>
+      <c r="B13" s="2">
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
+      <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>323</v>
       </c>
       <c r="D20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="2">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="2">
+      <c r="C26" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="2">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B28" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>88</v>
+      <c r="A31" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="2">
+      <c r="B38" s="2">
         <v>1</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="2">
+      <c r="C38" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="2">
         <v>2</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="2">
-        <v>3</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B40" s="2">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>95</v>
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="2">
-        <v>2</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="2">
-        <v>3</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="2">
-        <v>4</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" s="2">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="2">
         <v>1</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B47" s="2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="2">
         <v>2</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B48" s="2">
+      <c r="C50" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="2">
         <v>3</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="2">
+      <c r="C51" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="2">
         <v>1</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="2">
         <v>2</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="2">
-        <v>3</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2">
+        <v>3</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="2">
         <v>1</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="2">
+      <c r="C58" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="2">
         <v>2</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B57" s="2">
-        <v>3</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="C59" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="2">
-        <v>2</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B64" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" s="2">
-        <v>2</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B69" s="2">
-        <v>2</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B70" s="2">
-        <v>3</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B71" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>144</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B72" s="2">
-        <v>5</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>145</v>
+        <v>2</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" s="2">
+        <v>3</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="B74" s="2">
-        <v>1</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>226</v>
+        <v>4</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="B75" s="2">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B78" s="2">
         <v>2</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B76" s="2">
+      <c r="C78" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B79" s="2">
         <v>3</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
@@ -3134,11 +4305,9 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
@@ -3358,18 +4527,18 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-      <c r="C214" s="1"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
-      <c r="C215" s="1"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-      <c r="C216" s="1"/>
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
@@ -3454,6 +4623,18 @@
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+      <c r="C238" s="1"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+      <c r="C239" s="1"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="C240" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3527,54 +4708,54 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3670,130 +4851,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B17" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3804,10 +4985,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3829,7 +5010,7 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3845,7 +5026,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3853,7 +5034,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3861,7 +5042,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3869,23 +5050,23 @@
         <v>57</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3893,7 +5074,7 @@
         <v>53</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3909,7 +5090,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3917,15 +5098,15 @@
         <v>53</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3933,7 +5114,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3941,15 +5122,15 @@
         <v>9</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3957,7 +5138,7 @@
         <v>9</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3965,7 +5146,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3973,7 +5154,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3981,7 +5162,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3989,7 +5170,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3997,7 +5178,7 @@
         <v>9</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4005,7 +5186,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -4013,7 +5194,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -4021,7 +5202,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -4029,7 +5210,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -4037,7 +5218,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -4045,7 +5226,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -4053,7 +5234,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -4061,7 +5242,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -4069,7 +5250,7 @@
         <v>9</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -4077,7 +5258,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -4085,15 +5266,15 @@
         <v>4</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -4101,7 +5282,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -4109,31 +5290,255 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>253</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>261</v>
+      </c>
+      <c r="B50" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>261</v>
+      </c>
+      <c r="B53" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>261</v>
+      </c>
+      <c r="B57" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>261</v>
+      </c>
+      <c r="B64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>261</v>
+      </c>
+      <c r="B67" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>261</v>
+      </c>
+      <c r="B71" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>261</v>
+      </c>
+      <c r="B74" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/outroDia/forms/outroDia/outroDia.xlsx
+++ b/app/config/tables/outroDia/forms/outroDia/outroDia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\tables\outroDia\forms\outroDia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\outroDia\forms\outroDia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0465754E-C2E7-45DE-87AB-3255CE3D9BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB21007-B53C-4BEB-B9BC-F499AAE06E8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="352">
   <si>
     <t>type</t>
   </si>
@@ -1039,6 +1039,66 @@
   </si>
   <si>
     <t>lab</t>
+  </si>
+  <si>
+    <t>nao_data1</t>
+  </si>
+  <si>
+    <t>adate.hasUncertainty(data('date_adm1'))</t>
+  </si>
+  <si>
+    <t>nao_futuro1</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_adm1'),calculates.hoje())</t>
+  </si>
+  <si>
+    <t>(calculates.nao_data1() || calculates.nao_futuro1()&lt;0) &amp;&amp; data('outros_med')=='1'</t>
+  </si>
+  <si>
+    <t>nao_data2</t>
+  </si>
+  <si>
+    <t>adate.hasUncertainty(data('date_adm2'))</t>
+  </si>
+  <si>
+    <t>nao_futuro2</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_adm2'),calculates.hoje())</t>
+  </si>
+  <si>
+    <t>(calculates.nao_data2() || calculates.nao_futuro2()&lt;0) &amp;&amp; data('outros_med2')=='1'</t>
+  </si>
+  <si>
+    <t>nao_data3</t>
+  </si>
+  <si>
+    <t>adate.hasUncertainty(data('date_adm3'))</t>
+  </si>
+  <si>
+    <t>nao_futuro3</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_adm3'),calculates.hoje())</t>
+  </si>
+  <si>
+    <t>(calculates.nao_data3() || calculates.nao_futuro3()&lt;0) &amp;&amp; data('outros_med3')=='1'</t>
+  </si>
+  <si>
+    <t>nao_data4</t>
+  </si>
+  <si>
+    <t>adate.hasUncertainty(data('date_adm4'))</t>
+  </si>
+  <si>
+    <t>nao_futuro4</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data('date_adm4'),calculates.hoje())</t>
+  </si>
+  <si>
+    <t>(calculates.nao_data4() || calculates.nao_futuro4()&lt;0) &amp;&amp; data('outros_med4')=='1'</t>
   </si>
 </sst>
 </file>
@@ -1701,14 +1761,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1719,7 +1779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1727,7 +1787,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1735,7 +1795,7 @@
         <v>2020071900</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1743,7 +1803,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1766,14 +1826,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y163"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomRight" activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
@@ -1794,7 +1854,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1871,18 +1931,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D4" s="2" t="s">
         <v>56</v>
       </c>
@@ -1893,7 +1953,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.5">
       <c r="D5" s="2" t="s">
         <v>56</v>
       </c>
@@ -1904,11 +1964,11 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1925,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
@@ -1935,7 +1995,7 @@
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1949,25 +2009,25 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1984,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B14" s="2" t="s">
         <v>133</v>
       </c>
@@ -1995,11 +2055,11 @@
       <c r="E14" s="15"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
@@ -2016,7 +2076,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
@@ -2026,7 +2086,7 @@
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="D18" s="2" t="s">
         <v>56</v>
       </c>
@@ -2037,25 +2097,25 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="63" x14ac:dyDescent="0.5">
       <c r="A22"/>
       <c r="D22" s="2" t="s">
         <v>79</v>
@@ -2073,7 +2133,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A23"/>
       <c r="D23" s="2" t="s">
         <v>9</v>
@@ -2091,7 +2151,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A24"/>
       <c r="B24" s="2" t="s">
         <v>47</v>
@@ -2099,14 +2159,14 @@
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
@@ -2123,7 +2183,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
@@ -2140,7 +2200,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
@@ -2157,7 +2217,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2234,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
@@ -2191,21 +2251,21 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
@@ -2222,7 +2282,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
@@ -2239,7 +2299,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
@@ -2256,7 +2316,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
@@ -2273,7 +2333,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B37" s="2" t="s">
         <v>108</v>
       </c>
@@ -2283,7 +2343,7 @@
       <c r="D37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15" t="s">
@@ -2301,7 +2361,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B39" s="15" t="s">
         <v>110</v>
       </c>
@@ -2313,7 +2373,7 @@
       <c r="H39" s="15"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A40"/>
       <c r="B40" s="2" t="s">
         <v>47</v>
@@ -2321,7 +2381,7 @@
       <c r="D40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A41"/>
       <c r="D41" s="2" t="s">
         <v>9</v>
@@ -2339,7 +2399,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A42"/>
       <c r="B42" s="2" t="s">
         <v>45</v>
@@ -2350,7 +2410,7 @@
       <c r="D42" s="2"/>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B43" s="15" t="s">
         <v>46</v>
       </c>
@@ -2361,7 +2421,7 @@
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15" t="s">
@@ -2379,7 +2439,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15" t="s">
@@ -2392,7 +2452,7 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B46" s="15" t="s">
         <v>47</v>
       </c>
@@ -2403,7 +2463,7 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -2412,7 +2472,7 @@
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A48"/>
       <c r="B48" s="2" t="s">
         <v>48</v>
@@ -2420,12 +2480,12 @@
       <c r="D48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A49"/>
       <c r="D49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15" t="s">
@@ -2445,7 +2505,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B51" s="25" t="s">
         <v>252</v>
       </c>
@@ -2459,7 +2519,7 @@
       <c r="H51" s="25"/>
       <c r="M51" s="26"/>
     </row>
-    <row r="52" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B52" s="25" t="s">
         <v>254</v>
       </c>
@@ -2471,7 +2531,7 @@
       <c r="H52" s="25"/>
       <c r="M52" s="26"/>
     </row>
-    <row r="53" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -2481,7 +2541,7 @@
       <c r="H53" s="25"/>
       <c r="M53" s="26"/>
     </row>
-    <row r="54" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B54" s="25" t="s">
         <v>255</v>
       </c>
@@ -2493,7 +2553,7 @@
       <c r="H54" s="25"/>
       <c r="M54" s="26"/>
     </row>
-    <row r="55" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -2503,7 +2563,7 @@
       <c r="H55" s="25"/>
       <c r="M55" s="26"/>
     </row>
-    <row r="56" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B56" s="25" t="s">
         <v>46</v>
       </c>
@@ -2515,7 +2575,7 @@
       <c r="H56" s="25"/>
       <c r="M56" s="26"/>
     </row>
-    <row r="57" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25" t="s">
@@ -2531,7 +2591,7 @@
       <c r="H57" s="25"/>
       <c r="M57" s="26"/>
     </row>
-    <row r="58" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25" t="s">
@@ -2550,7 +2610,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25" t="s">
@@ -2575,7 +2635,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25" t="s">
@@ -2594,7 +2654,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25" t="s">
@@ -2613,7 +2673,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25" t="s">
@@ -2634,7 +2694,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B63" s="24" t="s">
         <v>45</v>
       </c>
@@ -2646,7 +2706,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D64" s="24" t="s">
         <v>261</v>
       </c>
@@ -2658,7 +2718,7 @@
       </c>
       <c r="M64" s="26"/>
     </row>
-    <row r="65" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B65" s="24" t="s">
         <v>48</v>
       </c>
@@ -2667,16 +2727,16 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B66" s="24" t="s">
         <v>47</v>
       </c>
       <c r="M66" s="26"/>
     </row>
-    <row r="67" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="M67" s="26"/>
     </row>
-    <row r="68" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B68" s="24" t="s">
         <v>45</v>
       </c>
@@ -2685,7 +2745,7 @@
       </c>
       <c r="M68" s="26"/>
     </row>
-    <row r="69" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D69" s="24" t="s">
         <v>56</v>
       </c>
@@ -2703,16 +2763,16 @@
       </c>
       <c r="M69" s="26"/>
     </row>
-    <row r="70" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B70" s="24" t="s">
         <v>48</v>
       </c>
       <c r="M70" s="26"/>
     </row>
-    <row r="71" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="M71" s="26"/>
     </row>
-    <row r="72" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D72" s="24" t="s">
         <v>9</v>
       </c>
@@ -2730,7 +2790,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="73" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B73" s="24" t="s">
         <v>45</v>
       </c>
@@ -2739,24 +2799,24 @@
       </c>
       <c r="M73" s="26"/>
     </row>
-    <row r="74" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B74" s="24" t="s">
         <v>254</v>
       </c>
       <c r="M74" s="26"/>
     </row>
-    <row r="75" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B75" s="24" t="s">
         <v>279</v>
       </c>
       <c r="M75" s="26"/>
     </row>
-    <row r="76" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B76" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D77" s="27" t="s">
         <v>53</v>
       </c>
@@ -2770,7 +2830,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="78" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D78" s="27" t="s">
         <v>57</v>
       </c>
@@ -2790,7 +2850,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="79" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D79" s="27" t="s">
         <v>261</v>
       </c>
@@ -2804,7 +2864,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="80" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D80" s="27" t="s">
         <v>4</v>
       </c>
@@ -2818,7 +2878,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="81" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D81" s="27" t="s">
         <v>9</v>
       </c>
@@ -2835,7 +2895,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="82" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B82" s="27" t="s">
         <v>45</v>
       </c>
@@ -2843,7 +2903,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="83" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D83" s="27" t="s">
         <v>261</v>
       </c>
@@ -2857,18 +2917,18 @@
         <v>286</v>
       </c>
     </row>
-    <row r="84" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B84" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B85" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="87" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B87" s="27" t="s">
         <v>45</v>
       </c>
@@ -2876,7 +2936,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D88" s="27" t="s">
         <v>56</v>
       </c>
@@ -2893,15 +2953,15 @@
         <v>290</v>
       </c>
     </row>
-    <row r="89" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B89" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="M90" s="26"/>
     </row>
-    <row r="91" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D91" s="24" t="s">
         <v>9</v>
       </c>
@@ -2919,7 +2979,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="92" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B92" s="24" t="s">
         <v>45</v>
       </c>
@@ -2928,30 +2988,30 @@
       </c>
       <c r="M92" s="26"/>
     </row>
-    <row r="93" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B93" s="24" t="s">
         <v>254</v>
       </c>
       <c r="M93" s="26"/>
     </row>
-    <row r="94" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B94" s="24" t="s">
         <v>279</v>
       </c>
       <c r="M94" s="26"/>
     </row>
-    <row r="95" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="M95" s="26"/>
     </row>
-    <row r="96" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="M96" s="26"/>
     </row>
-    <row r="97" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B97" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D98" s="27" t="s">
         <v>53</v>
       </c>
@@ -2965,7 +3025,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="99" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D99" s="27" t="s">
         <v>57</v>
       </c>
@@ -2985,7 +3045,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="100" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D100" s="27" t="s">
         <v>261</v>
       </c>
@@ -2999,7 +3059,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="101" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D101" s="27" t="s">
         <v>4</v>
       </c>
@@ -3013,7 +3073,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="102" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D102" s="27" t="s">
         <v>9</v>
       </c>
@@ -3030,7 +3090,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="103" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B103" s="27" t="s">
         <v>45</v>
       </c>
@@ -3038,7 +3098,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D104" s="27" t="s">
         <v>261</v>
       </c>
@@ -3052,18 +3112,18 @@
         <v>300</v>
       </c>
     </row>
-    <row r="105" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B105" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B106" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="108" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B108" s="27" t="s">
         <v>45</v>
       </c>
@@ -3071,7 +3131,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="109" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D109" s="27" t="s">
         <v>56</v>
       </c>
@@ -3088,13 +3148,13 @@
         <v>304</v>
       </c>
     </row>
-    <row r="110" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B110" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="2:14" s="24" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="112" spans="2:14" s="24" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
       <c r="D112" s="24" t="s">
         <v>9</v>
       </c>
@@ -3112,7 +3172,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="113" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B113" s="24" t="s">
         <v>45</v>
       </c>
@@ -3121,26 +3181,26 @@
       </c>
       <c r="M113" s="26"/>
     </row>
-    <row r="114" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B114" s="24" t="s">
         <v>254</v>
       </c>
       <c r="M114" s="26"/>
     </row>
-    <row r="115" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B115" s="24" t="s">
         <v>279</v>
       </c>
       <c r="M115" s="26"/>
     </row>
-    <row r="116" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="117" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="118" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B118" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D119" s="27" t="s">
         <v>53</v>
       </c>
@@ -3154,7 +3214,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="120" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D120" s="27" t="s">
         <v>57</v>
       </c>
@@ -3174,7 +3234,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D121" s="27" t="s">
         <v>261</v>
       </c>
@@ -3188,7 +3248,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D122" s="27" t="s">
         <v>4</v>
       </c>
@@ -3202,7 +3262,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="123" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D123" s="27" t="s">
         <v>9</v>
       </c>
@@ -3219,7 +3279,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B124" s="27" t="s">
         <v>45</v>
       </c>
@@ -3227,7 +3287,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="125" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D125" s="27" t="s">
         <v>261</v>
       </c>
@@ -3241,18 +3301,18 @@
         <v>314</v>
       </c>
     </row>
-    <row r="126" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B126" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B127" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="128" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="129" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B129" s="27" t="s">
         <v>45</v>
       </c>
@@ -3260,7 +3320,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="D130" s="27" t="s">
         <v>56</v>
       </c>
@@ -3277,15 +3337,15 @@
         <v>318</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B131" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="M132" s="26"/>
     </row>
-    <row r="133" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B133" s="25"/>
       <c r="C133" s="25"/>
       <c r="D133" s="25"/>
@@ -3295,7 +3355,7 @@
       <c r="H133" s="25"/>
       <c r="M133" s="26"/>
     </row>
-    <row r="134" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B134" s="25" t="s">
         <v>48</v>
       </c>
@@ -3307,7 +3367,7 @@
       <c r="H134" s="25"/>
       <c r="M134" s="26"/>
     </row>
-    <row r="135" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B135" s="25" t="s">
         <v>48</v>
       </c>
@@ -3319,7 +3379,7 @@
       <c r="H135" s="25"/>
       <c r="M135" s="26"/>
     </row>
-    <row r="136" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B136" s="25" t="s">
         <v>48</v>
       </c>
@@ -3331,7 +3391,7 @@
       <c r="H136" s="25"/>
       <c r="M136" s="26"/>
     </row>
-    <row r="137" spans="1:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B137" s="25" t="s">
         <v>319</v>
       </c>
@@ -3343,7 +3403,7 @@
       <c r="H137" s="25"/>
       <c r="M137" s="26"/>
     </row>
-    <row r="138" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B138" s="25"/>
       <c r="C138" s="25"/>
       <c r="D138" s="25"/>
@@ -3353,7 +3413,7 @@
       <c r="H138" s="25"/>
       <c r="M138" s="26"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
@@ -3362,21 +3422,21 @@
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A140" s="2" t="s">
         <v>331</v>
       </c>
       <c r="D140" s="2"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B141" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.5">
       <c r="D142" s="2" t="s">
         <v>56</v>
       </c>
@@ -3387,7 +3447,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.5">
       <c r="D143" s="2" t="s">
         <v>56</v>
       </c>
@@ -3398,7 +3458,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.5">
       <c r="B144" s="15"/>
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
@@ -3407,7 +3467,7 @@
       <c r="G144" s="15"/>
       <c r="H144" s="15"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D145" s="2" t="s">
         <v>56</v>
       </c>
@@ -3418,7 +3478,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D146" s="2" t="s">
         <v>56</v>
       </c>
@@ -3429,11 +3489,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D147" s="2"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D148" s="2" t="s">
         <v>9</v>
       </c>
@@ -3450,7 +3510,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D149" s="2" t="s">
         <v>209</v>
       </c>
@@ -3461,7 +3521,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B150" s="15" t="s">
         <v>47</v>
       </c>
@@ -3472,14 +3532,14 @@
       <c r="G150" s="15"/>
       <c r="H150" s="15"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B151" s="2" t="s">
         <v>173</v>
       </c>
       <c r="D151" s="2"/>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A152" s="2" t="s">
         <v>134</v>
       </c>
@@ -3499,7 +3559,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B153" s="2" t="s">
         <v>45</v>
       </c>
@@ -3509,7 +3569,7 @@
       <c r="D153" s="2"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:23" ht="63" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" ht="63" x14ac:dyDescent="0.5">
       <c r="D154" s="2" t="s">
         <v>4</v>
       </c>
@@ -3523,21 +3583,21 @@
         <v>170</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.5">
       <c r="B155" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D155" s="2"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.5">
       <c r="A157" s="2" t="s">
         <v>174</v>
       </c>
       <c r="D157" s="2"/>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D158" s="2" t="s">
         <v>227</v>
       </c>
@@ -3551,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D159" s="2" t="s">
         <v>227</v>
       </c>
@@ -3565,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.5">
       <c r="D160" s="6" t="s">
         <v>227</v>
       </c>
@@ -3579,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D163" s="2" t="s">
         <v>4</v>
       </c>
@@ -3604,11 +3664,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D240"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -3616,7 +3676,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -3630,7 +3690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -3641,7 +3701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -3652,7 +3712,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
@@ -3663,7 +3723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -3674,11 +3734,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -3689,7 +3749,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -3700,11 +3760,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>320</v>
       </c>
@@ -3715,7 +3775,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>320</v>
       </c>
@@ -3726,7 +3786,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>320</v>
       </c>
@@ -3737,11 +3797,11 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -3752,7 +3812,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -3763,10 +3823,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -3780,7 +3840,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -3794,7 +3854,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -3808,7 +3868,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -3822,7 +3882,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,7 +3896,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -3850,14 +3910,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -3868,7 +3928,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -3879,7 +3939,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
@@ -3890,15 +3950,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -3909,7 +3969,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -3920,7 +3980,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
         <v>84</v>
       </c>
@@ -3931,17 +3991,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
@@ -3952,7 +4012,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
         <v>89</v>
       </c>
@@ -3963,7 +4023,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
         <v>89</v>
       </c>
@@ -3974,14 +4034,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
@@ -3992,7 +4052,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
@@ -4003,7 +4063,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
@@ -4014,7 +4074,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -4025,15 +4085,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
         <v>116</v>
       </c>
@@ -4044,7 +4104,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
         <v>116</v>
       </c>
@@ -4055,7 +4115,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="2" t="s">
         <v>116</v>
       </c>
@@ -4066,10 +4126,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="1" t="s">
         <v>97</v>
       </c>
@@ -4080,7 +4140,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
@@ -4091,7 +4151,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
         <v>97</v>
       </c>
@@ -4102,13 +4162,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="1" t="s">
         <v>103</v>
       </c>
@@ -4119,7 +4179,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="1" t="s">
         <v>103</v>
       </c>
@@ -4130,7 +4190,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
@@ -4141,13 +4201,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="1" t="s">
         <v>117</v>
       </c>
@@ -4158,7 +4218,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="1" t="s">
         <v>117</v>
       </c>
@@ -4169,13 +4229,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="1" t="s">
         <v>118</v>
       </c>
@@ -4186,7 +4246,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68" s="1" t="s">
         <v>118</v>
       </c>
@@ -4197,13 +4257,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="1" t="s">
         <v>139</v>
       </c>
@@ -4214,7 +4274,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="1" t="s">
         <v>139</v>
       </c>
@@ -4225,7 +4285,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="1" t="s">
         <v>139</v>
       </c>
@@ -4236,7 +4296,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74" s="1" t="s">
         <v>139</v>
       </c>
@@ -4247,7 +4307,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="1" t="s">
         <v>139</v>
       </c>
@@ -4258,11 +4318,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A77" s="1" t="s">
         <v>214</v>
       </c>
@@ -4273,7 +4333,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="1" t="s">
         <v>214</v>
       </c>
@@ -4284,7 +4344,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="1" t="s">
         <v>214</v>
       </c>
@@ -4295,344 +4355,344 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A139" s="1"/>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A140" s="1"/>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A141" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A238" s="1"/>
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A239" s="1"/>
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A240" s="1"/>
       <c r="C240" s="1"/>
     </row>
@@ -4657,7 +4717,7 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -4671,7 +4731,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
@@ -4706,7 +4766,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -4732,7 +4792,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" s="15" t="s">
         <v>120</v>
       </c>
@@ -4773,14 +4833,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
@@ -4794,7 +4854,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -4808,7 +4868,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -4829,19 +4889,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A19" sqref="A19:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -4849,7 +4909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>175</v>
       </c>
@@ -4857,7 +4917,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>185</v>
       </c>
@@ -4865,7 +4925,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>191</v>
       </c>
@@ -4873,7 +4933,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>193</v>
       </c>
@@ -4881,7 +4941,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>195</v>
       </c>
@@ -4889,7 +4949,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -4897,7 +4957,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>240</v>
       </c>
@@ -4905,7 +4965,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>199</v>
       </c>
@@ -4913,7 +4973,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>201</v>
       </c>
@@ -4921,7 +4981,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>230</v>
       </c>
@@ -4929,7 +4989,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>237</v>
       </c>
@@ -4937,7 +4997,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>213</v>
       </c>
@@ -4945,7 +5005,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>233</v>
       </c>
@@ -4953,7 +5013,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -4961,7 +5021,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>223</v>
       </c>
@@ -4969,12 +5029,108 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>242</v>
       </c>
       <c r="B17" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B21" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B25" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B29" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A31" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B33" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -4987,17 +5143,17 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5005,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -5013,7 +5169,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
@@ -5021,7 +5177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -5029,7 +5185,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
@@ -5037,7 +5193,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="20" t="s">
         <v>9</v>
       </c>
@@ -5045,7 +5201,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="20" t="s">
         <v>57</v>
       </c>
@@ -5053,7 +5209,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="20" t="s">
         <v>143</v>
       </c>
@@ -5061,7 +5217,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="20" t="s">
         <v>143</v>
       </c>
@@ -5069,7 +5225,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="23" t="s">
         <v>53</v>
       </c>
@@ -5077,7 +5233,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="21" t="s">
         <v>9</v>
       </c>
@@ -5085,7 +5241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="21" t="s">
         <v>53</v>
       </c>
@@ -5093,7 +5249,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="22" t="s">
         <v>53</v>
       </c>
@@ -5101,7 +5257,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="16" t="s">
         <v>143</v>
       </c>
@@ -5109,7 +5265,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="16" t="s">
         <v>9</v>
       </c>
@@ -5117,7 +5273,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="16" t="s">
         <v>9</v>
       </c>
@@ -5125,7 +5281,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="16" t="s">
         <v>79</v>
       </c>
@@ -5133,7 +5289,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="16" t="s">
         <v>9</v>
       </c>
@@ -5141,7 +5297,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="16" t="s">
         <v>9</v>
       </c>
@@ -5149,7 +5305,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="16" t="s">
         <v>9</v>
       </c>
@@ -5157,7 +5313,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
@@ -5165,7 +5321,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="16" t="s">
         <v>9</v>
       </c>
@@ -5173,7 +5329,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="16" t="s">
         <v>9</v>
       </c>
@@ -5181,7 +5337,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="16" t="s">
         <v>9</v>
       </c>
@@ -5189,7 +5345,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="16" t="s">
         <v>9</v>
       </c>
@@ -5197,7 +5353,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="16" t="s">
         <v>9</v>
       </c>
@@ -5205,7 +5361,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="16" t="s">
         <v>9</v>
       </c>
@@ -5213,7 +5369,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="17" t="s">
         <v>4</v>
       </c>
@@ -5221,7 +5377,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="16" t="s">
         <v>9</v>
       </c>
@@ -5229,7 +5385,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="17" t="s">
         <v>9</v>
       </c>
@@ -5237,7 +5393,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="16" t="s">
         <v>9</v>
       </c>
@@ -5245,7 +5401,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="16" t="s">
         <v>9</v>
       </c>
@@ -5253,7 +5409,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="16" t="s">
         <v>4</v>
       </c>
@@ -5261,7 +5417,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="16" t="s">
         <v>4</v>
       </c>
@@ -5269,7 +5425,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="2" t="s">
         <v>209</v>
       </c>
@@ -5277,7 +5433,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="2" t="s">
         <v>9</v>
       </c>
@@ -5285,7 +5441,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -5293,7 +5449,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="2" t="s">
         <v>227</v>
       </c>
@@ -5301,7 +5457,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="2" t="s">
         <v>227</v>
       </c>
@@ -5309,7 +5465,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="6" t="s">
         <v>227</v>
       </c>
@@ -5317,7 +5473,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="15" t="s">
         <v>9</v>
       </c>
@@ -5325,7 +5481,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -5333,7 +5489,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -5341,7 +5497,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>261</v>
       </c>
@@ -5349,7 +5505,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -5357,7 +5513,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -5365,7 +5521,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>261</v>
       </c>
@@ -5373,7 +5529,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -5381,7 +5537,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -5389,7 +5545,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -5397,7 +5553,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>261</v>
       </c>
@@ -5405,7 +5561,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -5413,7 +5569,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -5421,7 +5577,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>261</v>
       </c>
@@ -5429,7 +5585,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -5437,7 +5593,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>53</v>
       </c>
@@ -5445,7 +5601,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -5453,7 +5609,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>261</v>
       </c>
@@ -5461,7 +5617,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -5469,7 +5625,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -5477,7 +5633,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>261</v>
       </c>
@@ -5485,7 +5641,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -5493,7 +5649,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -5501,7 +5657,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>57</v>
       </c>
@@ -5509,7 +5665,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>261</v>
       </c>
@@ -5517,7 +5673,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -5525,7 +5681,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -5533,7 +5689,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>261</v>
       </c>

--- a/app/config/tables/outroDia/forms/outroDia/outroDia.xlsx
+++ b/app/config/tables/outroDia/forms/outroDia/outroDia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\outroDia\forms\outroDia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\tables\outroDia\forms\outroDia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB21007-B53C-4BEB-B9BC-F499AAE06E8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B859ED-D279-47FD-9A3D-8DB18A795418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="353">
   <si>
     <t>type</t>
   </si>
@@ -1099,6 +1099,9 @@
   </si>
   <si>
     <t>(calculates.nao_data4() || calculates.nao_futuro4()&lt;0) &amp;&amp; data('outros_med4')=='1'</t>
+  </si>
+  <si>
+    <t>hoje</t>
   </si>
 </sst>
 </file>
@@ -1761,14 +1764,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1779,7 +1782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>2020071900</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1826,14 +1829,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
@@ -1854,7 +1857,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1931,18 +1934,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
         <v>56</v>
       </c>
@@ -1953,7 +1956,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:25" ht="63" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
         <v>56</v>
       </c>
@@ -1964,11 +1967,11 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
@@ -1995,7 +1998,7 @@
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
@@ -2009,25 +2012,25 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:25" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>133</v>
       </c>
@@ -2055,11 +2058,11 @@
       <c r="E14" s="15"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
@@ -2076,7 +2079,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
@@ -2086,7 +2089,7 @@
       <c r="D17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:14" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="D18" s="2" t="s">
         <v>56</v>
       </c>
@@ -2097,25 +2100,25 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:14" ht="63" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="D22" s="2" t="s">
         <v>79</v>
@@ -2133,7 +2136,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="D23" s="2" t="s">
         <v>9</v>
@@ -2151,7 +2154,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" s="2" t="s">
         <v>47</v>
@@ -2159,14 +2162,14 @@
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
@@ -2217,7 +2220,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
@@ -2234,7 +2237,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
@@ -2251,21 +2254,21 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
@@ -2299,7 +2302,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
@@ -2316,7 +2319,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>108</v>
       </c>
@@ -2343,7 +2346,7 @@
       <c r="D37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15" t="s">
@@ -2361,7 +2364,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
         <v>110</v>
       </c>
@@ -2373,7 +2376,7 @@
       <c r="H39" s="15"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40" s="2" t="s">
         <v>47</v>
@@ -2381,7 +2384,7 @@
       <c r="D40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="D41" s="2" t="s">
         <v>9</v>
@@ -2399,7 +2402,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42" s="2" t="s">
         <v>45</v>
@@ -2410,7 +2413,7 @@
       <c r="D42" s="2"/>
       <c r="F42" s="15"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" s="15" t="s">
         <v>46</v>
       </c>
@@ -2421,7 +2424,7 @@
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15" t="s">
@@ -2439,7 +2442,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15" t="s">
@@ -2452,7 +2455,7 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
         <v>47</v>
       </c>
@@ -2463,7 +2466,7 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -2472,7 +2475,7 @@
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48" s="2" t="s">
         <v>48</v>
@@ -2480,12 +2483,12 @@
       <c r="D48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="D49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15" t="s">
@@ -2505,7 +2508,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B51" s="25" t="s">
         <v>252</v>
       </c>
@@ -2519,7 +2522,7 @@
       <c r="H51" s="25"/>
       <c r="M51" s="26"/>
     </row>
-    <row r="52" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="25" t="s">
         <v>254</v>
       </c>
@@ -2531,7 +2534,7 @@
       <c r="H52" s="25"/>
       <c r="M52" s="26"/>
     </row>
-    <row r="53" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -2541,7 +2544,7 @@
       <c r="H53" s="25"/>
       <c r="M53" s="26"/>
     </row>
-    <row r="54" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="25" t="s">
         <v>255</v>
       </c>
@@ -2553,7 +2556,7 @@
       <c r="H54" s="25"/>
       <c r="M54" s="26"/>
     </row>
-    <row r="55" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -2563,7 +2566,7 @@
       <c r="H55" s="25"/>
       <c r="M55" s="26"/>
     </row>
-    <row r="56" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="25" t="s">
         <v>46</v>
       </c>
@@ -2575,7 +2578,7 @@
       <c r="H56" s="25"/>
       <c r="M56" s="26"/>
     </row>
-    <row r="57" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25" t="s">
@@ -2591,7 +2594,7 @@
       <c r="H57" s="25"/>
       <c r="M57" s="26"/>
     </row>
-    <row r="58" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25" t="s">
@@ -2610,7 +2613,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25" t="s">
@@ -2635,7 +2638,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25" t="s">
@@ -2654,7 +2657,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25" t="s">
@@ -2673,7 +2676,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25" t="s">
@@ -2694,7 +2697,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="24" t="s">
         <v>45</v>
       </c>
@@ -2706,7 +2709,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D64" s="24" t="s">
         <v>261</v>
       </c>
@@ -2718,7 +2721,7 @@
       </c>
       <c r="M64" s="26"/>
     </row>
-    <row r="65" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="24" t="s">
         <v>48</v>
       </c>
@@ -2727,16 +2730,16 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="24" t="s">
         <v>47</v>
       </c>
       <c r="M66" s="26"/>
     </row>
-    <row r="67" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M67" s="26"/>
     </row>
-    <row r="68" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="24" t="s">
         <v>45</v>
       </c>
@@ -2745,7 +2748,7 @@
       </c>
       <c r="M68" s="26"/>
     </row>
-    <row r="69" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D69" s="24" t="s">
         <v>56</v>
       </c>
@@ -2763,16 +2766,16 @@
       </c>
       <c r="M69" s="26"/>
     </row>
-    <row r="70" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="24" t="s">
         <v>48</v>
       </c>
       <c r="M70" s="26"/>
     </row>
-    <row r="71" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M71" s="26"/>
     </row>
-    <row r="72" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D72" s="24" t="s">
         <v>9</v>
       </c>
@@ -2790,7 +2793,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="73" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="24" t="s">
         <v>45</v>
       </c>
@@ -2799,24 +2802,24 @@
       </c>
       <c r="M73" s="26"/>
     </row>
-    <row r="74" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="24" t="s">
         <v>254</v>
       </c>
       <c r="M74" s="26"/>
     </row>
-    <row r="75" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="24" t="s">
         <v>279</v>
       </c>
       <c r="M75" s="26"/>
     </row>
-    <row r="76" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D77" s="27" t="s">
         <v>53</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="78" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D78" s="27" t="s">
         <v>57</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="79" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D79" s="27" t="s">
         <v>261</v>
       </c>
@@ -2864,7 +2867,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="80" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D80" s="27" t="s">
         <v>4</v>
       </c>
@@ -2878,7 +2881,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="81" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D81" s="27" t="s">
         <v>9</v>
       </c>
@@ -2895,7 +2898,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="82" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="27" t="s">
         <v>45</v>
       </c>
@@ -2903,7 +2906,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="83" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D83" s="27" t="s">
         <v>261</v>
       </c>
@@ -2917,18 +2920,18 @@
         <v>286</v>
       </c>
     </row>
-    <row r="84" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="87" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="27" t="s">
         <v>45</v>
       </c>
@@ -2936,7 +2939,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D88" s="27" t="s">
         <v>56</v>
       </c>
@@ -2953,15 +2956,15 @@
         <v>290</v>
       </c>
     </row>
-    <row r="89" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M90" s="26"/>
     </row>
-    <row r="91" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D91" s="24" t="s">
         <v>9</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="92" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="24" t="s">
         <v>45</v>
       </c>
@@ -2988,30 +2991,30 @@
       </c>
       <c r="M92" s="26"/>
     </row>
-    <row r="93" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="24" t="s">
         <v>254</v>
       </c>
       <c r="M93" s="26"/>
     </row>
-    <row r="94" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="24" t="s">
         <v>279</v>
       </c>
       <c r="M94" s="26"/>
     </row>
-    <row r="95" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M95" s="26"/>
     </row>
-    <row r="96" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M96" s="26"/>
     </row>
-    <row r="97" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D98" s="27" t="s">
         <v>53</v>
       </c>
@@ -3025,7 +3028,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="99" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D99" s="27" t="s">
         <v>57</v>
       </c>
@@ -3045,7 +3048,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="100" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D100" s="27" t="s">
         <v>261</v>
       </c>
@@ -3059,7 +3062,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="101" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D101" s="27" t="s">
         <v>4</v>
       </c>
@@ -3073,7 +3076,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="102" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D102" s="27" t="s">
         <v>9</v>
       </c>
@@ -3090,7 +3093,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="103" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="27" t="s">
         <v>45</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D104" s="27" t="s">
         <v>261</v>
       </c>
@@ -3112,18 +3115,18 @@
         <v>300</v>
       </c>
     </row>
-    <row r="105" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="108" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="27" t="s">
         <v>45</v>
       </c>
@@ -3131,7 +3134,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="109" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D109" s="27" t="s">
         <v>56</v>
       </c>
@@ -3148,13 +3151,13 @@
         <v>304</v>
       </c>
     </row>
-    <row r="110" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="112" spans="2:14" s="24" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="2:14" s="24" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="D112" s="24" t="s">
         <v>9</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="113" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="24" t="s">
         <v>45</v>
       </c>
@@ -3181,26 +3184,26 @@
       </c>
       <c r="M113" s="26"/>
     </row>
-    <row r="114" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="24" t="s">
         <v>254</v>
       </c>
       <c r="M114" s="26"/>
     </row>
-    <row r="115" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="24" t="s">
         <v>279</v>
       </c>
       <c r="M115" s="26"/>
     </row>
-    <row r="116" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="117" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="118" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D119" s="27" t="s">
         <v>53</v>
       </c>
@@ -3214,7 +3217,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="120" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D120" s="27" t="s">
         <v>57</v>
       </c>
@@ -3234,7 +3237,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="121" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D121" s="27" t="s">
         <v>261</v>
       </c>
@@ -3248,7 +3251,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D122" s="27" t="s">
         <v>4</v>
       </c>
@@ -3262,7 +3265,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="123" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="123" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D123" s="27" t="s">
         <v>9</v>
       </c>
@@ -3279,7 +3282,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="124" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="27" t="s">
         <v>45</v>
       </c>
@@ -3287,7 +3290,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="125" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="125" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D125" s="27" t="s">
         <v>261</v>
       </c>
@@ -3301,18 +3304,18 @@
         <v>314</v>
       </c>
     </row>
-    <row r="126" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="126" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="127" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="128" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="129" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="128" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="27" t="s">
         <v>45</v>
       </c>
@@ -3320,7 +3323,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D130" s="27" t="s">
         <v>56</v>
       </c>
@@ -3337,15 +3340,15 @@
         <v>318</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M132" s="26"/>
     </row>
-    <row r="133" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="25"/>
       <c r="C133" s="25"/>
       <c r="D133" s="25"/>
@@ -3355,7 +3358,7 @@
       <c r="H133" s="25"/>
       <c r="M133" s="26"/>
     </row>
-    <row r="134" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="25" t="s">
         <v>48</v>
       </c>
@@ -3367,7 +3370,7 @@
       <c r="H134" s="25"/>
       <c r="M134" s="26"/>
     </row>
-    <row r="135" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="25" t="s">
         <v>48</v>
       </c>
@@ -3379,7 +3382,7 @@
       <c r="H135" s="25"/>
       <c r="M135" s="26"/>
     </row>
-    <row r="136" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="25" t="s">
         <v>48</v>
       </c>
@@ -3391,7 +3394,7 @@
       <c r="H136" s="25"/>
       <c r="M136" s="26"/>
     </row>
-    <row r="137" spans="1:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B137" s="25" t="s">
         <v>319</v>
       </c>
@@ -3403,7 +3406,7 @@
       <c r="H137" s="25"/>
       <c r="M137" s="26"/>
     </row>
-    <row r="138" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="25"/>
       <c r="C138" s="25"/>
       <c r="D138" s="25"/>
@@ -3413,7 +3416,7 @@
       <c r="H138" s="25"/>
       <c r="M138" s="26"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
@@ -3422,21 +3425,21 @@
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>331</v>
       </c>
       <c r="D140" s="2"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B141" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D142" s="2" t="s">
         <v>56</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D143" s="2" t="s">
         <v>56</v>
       </c>
@@ -3458,7 +3461,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B144" s="15"/>
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
@@ -3467,7 +3470,7 @@
       <c r="G144" s="15"/>
       <c r="H144" s="15"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D145" s="2" t="s">
         <v>56</v>
       </c>
@@ -3478,7 +3481,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D146" s="2" t="s">
         <v>56</v>
       </c>
@@ -3489,11 +3492,11 @@
         <v>236</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D147" s="2"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D148" s="2" t="s">
         <v>9</v>
       </c>
@@ -3510,7 +3513,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D149" s="2" t="s">
         <v>209</v>
       </c>
@@ -3521,7 +3524,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B150" s="15" t="s">
         <v>47</v>
       </c>
@@ -3532,14 +3535,14 @@
       <c r="G150" s="15"/>
       <c r="H150" s="15"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B151" s="2" t="s">
         <v>173</v>
       </c>
       <c r="D151" s="2"/>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>134</v>
       </c>
@@ -3559,7 +3562,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B153" s="2" t="s">
         <v>45</v>
       </c>
@@ -3569,7 +3572,7 @@
       <c r="D153" s="2"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:23" ht="63" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:23" ht="63" x14ac:dyDescent="0.25">
       <c r="D154" s="2" t="s">
         <v>4</v>
       </c>
@@ -3583,21 +3586,21 @@
         <v>170</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B155" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D155" s="2"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>174</v>
       </c>
       <c r="D157" s="2"/>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D158" s="2" t="s">
         <v>227</v>
       </c>
@@ -3611,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D159" s="2" t="s">
         <v>227</v>
       </c>
@@ -3625,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D160" s="6" t="s">
         <v>227</v>
       </c>
@@ -3639,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.5">
+    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163" s="2" t="s">
         <v>4</v>
       </c>
@@ -3668,7 +3671,7 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -3676,7 +3679,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -3712,7 +3715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
@@ -3723,7 +3726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -3734,11 +3737,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -3760,11 +3763,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>320</v>
       </c>
@@ -3775,7 +3778,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>320</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>320</v>
       </c>
@@ -3797,11 +3800,11 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -3812,7 +3815,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -3823,10 +3826,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -3840,7 +3843,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>72</v>
       </c>
@@ -3896,7 +3899,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -3910,14 +3913,14 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -3928,7 +3931,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -3939,7 +3942,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>78</v>
       </c>
@@ -3950,15 +3953,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>80</v>
       </c>
@@ -3969,7 +3972,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -3980,7 +3983,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>84</v>
       </c>
@@ -3991,17 +3994,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
@@ -4012,7 +4015,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>89</v>
       </c>
@@ -4023,7 +4026,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>89</v>
       </c>
@@ -4034,14 +4037,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
@@ -4063,7 +4066,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
@@ -4074,7 +4077,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -4085,15 +4088,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>116</v>
       </c>
@@ -4104,7 +4107,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>116</v>
       </c>
@@ -4115,7 +4118,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>116</v>
       </c>
@@ -4126,10 +4129,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>97</v>
       </c>
@@ -4140,7 +4143,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
@@ -4151,7 +4154,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>97</v>
       </c>
@@ -4162,13 +4165,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>103</v>
       </c>
@@ -4179,7 +4182,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>103</v>
       </c>
@@ -4190,7 +4193,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
@@ -4201,13 +4204,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>117</v>
       </c>
@@ -4218,7 +4221,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>117</v>
       </c>
@@ -4229,13 +4232,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>118</v>
       </c>
@@ -4246,7 +4249,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>118</v>
       </c>
@@ -4257,13 +4260,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>139</v>
       </c>
@@ -4274,7 +4277,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>139</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>139</v>
       </c>
@@ -4296,7 +4299,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>139</v>
       </c>
@@ -4307,7 +4310,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>139</v>
       </c>
@@ -4318,11 +4321,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>214</v>
       </c>
@@ -4333,7 +4336,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>214</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>214</v>
       </c>
@@ -4355,344 +4358,344 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="C238" s="1"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="C240" s="1"/>
     </row>
@@ -4717,7 +4720,7 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -4731,7 +4734,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
@@ -4766,7 +4769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -4792,7 +4795,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>120</v>
       </c>
@@ -4833,14 +4836,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
@@ -4854,7 +4857,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -4868,7 +4871,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -4889,19 +4892,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -4909,227 +4912,235 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>193</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>195</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>197</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>240</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>199</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>201</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>230</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>213</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>233</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>224</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>223</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>242</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B25" s="12" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B29" s="12" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B33" s="12" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5147,13 +5158,13 @@
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5161,7 +5172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -5169,7 +5180,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
@@ -5177,7 +5188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -5185,7 +5196,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
@@ -5193,7 +5204,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>9</v>
       </c>
@@ -5201,7 +5212,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>57</v>
       </c>
@@ -5209,7 +5220,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>143</v>
       </c>
@@ -5217,7 +5228,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>143</v>
       </c>
@@ -5225,7 +5236,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>53</v>
       </c>
@@ -5233,7 +5244,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>9</v>
       </c>
@@ -5241,7 +5252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>53</v>
       </c>
@@ -5249,7 +5260,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>53</v>
       </c>
@@ -5257,7 +5268,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>143</v>
       </c>
@@ -5265,7 +5276,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>9</v>
       </c>
@@ -5273,7 +5284,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>9</v>
       </c>
@@ -5281,7 +5292,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>79</v>
       </c>
@@ -5289,7 +5300,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>9</v>
       </c>
@@ -5297,7 +5308,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>9</v>
       </c>
@@ -5305,7 +5316,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>9</v>
       </c>
@@ -5313,7 +5324,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>9</v>
       </c>
@@ -5321,7 +5332,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>9</v>
       </c>
@@ -5329,7 +5340,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>9</v>
       </c>
@@ -5337,7 +5348,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>9</v>
       </c>
@@ -5345,7 +5356,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>9</v>
       </c>
@@ -5353,7 +5364,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>9</v>
       </c>
@@ -5361,7 +5372,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>9</v>
       </c>
@@ -5369,7 +5380,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>4</v>
       </c>
@@ -5377,7 +5388,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>9</v>
       </c>
@@ -5385,7 +5396,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>9</v>
       </c>
@@ -5393,7 +5404,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>9</v>
       </c>
@@ -5401,7 +5412,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>9</v>
       </c>
@@ -5409,7 +5420,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>4</v>
       </c>
@@ -5417,7 +5428,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>4</v>
       </c>
@@ -5425,7 +5436,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>209</v>
       </c>
@@ -5433,7 +5444,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>9</v>
       </c>
@@ -5441,7 +5452,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -5449,7 +5460,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>227</v>
       </c>
@@ -5457,7 +5468,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>227</v>
       </c>
@@ -5465,7 +5476,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>227</v>
       </c>
@@ -5473,7 +5484,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>9</v>
       </c>
@@ -5481,7 +5492,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -5489,7 +5500,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -5497,7 +5508,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>261</v>
       </c>
@@ -5505,7 +5516,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -5513,7 +5524,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -5521,7 +5532,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>261</v>
       </c>
@@ -5529,7 +5540,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -5537,7 +5548,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -5545,7 +5556,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -5553,7 +5564,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>261</v>
       </c>
@@ -5561,7 +5572,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -5569,7 +5580,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -5577,7 +5588,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>261</v>
       </c>
@@ -5585,7 +5596,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -5593,7 +5604,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>53</v>
       </c>
@@ -5601,7 +5612,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -5609,7 +5620,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>261</v>
       </c>
@@ -5617,7 +5628,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -5625,7 +5636,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -5633,7 +5644,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>261</v>
       </c>
@@ -5641,7 +5652,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -5649,7 +5660,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -5657,7 +5668,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>57</v>
       </c>
@@ -5665,7 +5676,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>261</v>
       </c>
@@ -5673,7 +5684,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -5681,7 +5692,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -5689,7 +5700,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>261</v>
       </c>

--- a/app/config/tables/outroDia/forms/outroDia/outroDia.xlsx
+++ b/app/config/tables/outroDia/forms/outroDia/outroDia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\tables\outroDia\forms\outroDia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B859ED-D279-47FD-9A3D-8DB18A795418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B233F1AB-4D47-485A-8F52-06AC4DDC8E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="352">
   <si>
     <t>type</t>
   </si>
@@ -635,9 +635,6 @@
   </si>
   <si>
     <t>id_lamina</t>
-  </si>
-  <si>
-    <t>""+ data('id_estudo') + "X" + calculates.visita_id()</t>
   </si>
   <si>
     <t>nao_tel</t>
@@ -1787,7 +1784,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1803,7 +1800,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1811,7 +1808,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1829,11 +1826,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y163"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E128" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N58" sqref="N58"/>
+      <selection pane="bottomRight" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1964,7 +1961,7 @@
         <v>145</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1976,13 +1973,13 @@
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="N7" s="2" t="b">
         <v>1</v>
@@ -1993,7 +1990,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
@@ -2003,13 +2000,13 @@
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -2076,7 +2073,7 @@
         <v>119</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2130,10 +2127,10 @@
         <v>95</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2151,7 +2148,7 @@
         <v>96</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2183,7 +2180,7 @@
         <v>98</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2200,7 +2197,7 @@
         <v>99</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2217,7 +2214,7 @@
         <v>100</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2234,7 +2231,7 @@
         <v>101</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2251,7 +2248,7 @@
         <v>102</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2282,7 +2279,7 @@
         <v>106</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2299,7 +2296,7 @@
         <v>104</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2316,7 +2313,7 @@
         <v>105</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -2333,7 +2330,7 @@
         <v>107</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
@@ -2399,7 +2396,7 @@
         <v>125</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -2439,7 +2436,7 @@
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -2498,22 +2495,22 @@
         <v>42</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>123</v>
       </c>
       <c r="H50" s="15"/>
       <c r="N50" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B51" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C51" s="25" t="s">
         <v>252</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>253</v>
       </c>
       <c r="D51" s="25"/>
       <c r="E51" s="25"/>
@@ -2524,7 +2521,7 @@
     </row>
     <row r="52" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -2546,7 +2543,7 @@
     </row>
     <row r="54" spans="1:14" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -2602,15 +2599,15 @@
       </c>
       <c r="E58" s="25"/>
       <c r="F58" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="G58" s="25" t="s">
         <v>256</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>257</v>
       </c>
       <c r="H58" s="25"/>
       <c r="M58" s="26"/>
       <c r="N58" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -2621,10 +2618,10 @@
       </c>
       <c r="E59" s="25"/>
       <c r="F59" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="G59" s="25" t="s">
         <v>259</v>
-      </c>
-      <c r="G59" s="25" t="s">
-        <v>260</v>
       </c>
       <c r="H59" s="25"/>
       <c r="J59" s="24">
@@ -2635,26 +2632,26 @@
       </c>
       <c r="M59" s="26"/>
       <c r="N59" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E60" s="25"/>
       <c r="F60" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="G60" s="25" t="s">
         <v>262</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>263</v>
       </c>
       <c r="H60" s="25"/>
       <c r="M60" s="26"/>
       <c r="N60" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -2665,15 +2662,15 @@
       </c>
       <c r="E61" s="25"/>
       <c r="F61" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="G61" s="25" t="s">
         <v>264</v>
-      </c>
-      <c r="G61" s="25" t="s">
-        <v>265</v>
       </c>
       <c r="H61" s="25"/>
       <c r="M61" s="26"/>
       <c r="N61" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -2686,15 +2683,15 @@
         <v>42</v>
       </c>
       <c r="F62" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="G62" s="25" t="s">
         <v>266</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>267</v>
       </c>
       <c r="H62" s="25"/>
       <c r="M62" s="26"/>
       <c r="N62" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -2702,22 +2699,22 @@
         <v>45</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M63" s="26"/>
       <c r="N63" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D64" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F64" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="G64" s="24" t="s">
         <v>269</v>
-      </c>
-      <c r="G64" s="24" t="s">
-        <v>270</v>
       </c>
       <c r="M64" s="26"/>
     </row>
@@ -2727,7 +2724,7 @@
       </c>
       <c r="M65" s="26"/>
       <c r="N65" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -2744,7 +2741,7 @@
         <v>45</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M68" s="26"/>
     </row>
@@ -2753,16 +2750,16 @@
         <v>56</v>
       </c>
       <c r="F69" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="G69" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="G69" s="24" t="s">
+      <c r="I69" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="I69" s="24" t="s">
+      <c r="L69" s="24" t="s">
         <v>274</v>
-      </c>
-      <c r="L69" s="24" t="s">
-        <v>275</v>
       </c>
       <c r="M69" s="26"/>
     </row>
@@ -2783,14 +2780,14 @@
         <v>42</v>
       </c>
       <c r="F72" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="G72" s="24" t="s">
         <v>276</v>
-      </c>
-      <c r="G72" s="24" t="s">
-        <v>277</v>
       </c>
       <c r="M72" s="26"/>
       <c r="N72" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -2798,19 +2795,19 @@
         <v>45</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M73" s="26"/>
     </row>
     <row r="74" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M74" s="26"/>
     </row>
     <row r="75" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M75" s="26"/>
     </row>
@@ -2824,13 +2821,13 @@
         <v>53</v>
       </c>
       <c r="F77" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="G77" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="N77" s="25" t="s">
         <v>280</v>
-      </c>
-      <c r="G77" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="N77" s="25" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="78" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -2838,10 +2835,10 @@
         <v>57</v>
       </c>
       <c r="F78" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G78" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J78" s="27">
         <v>2020</v>
@@ -2850,21 +2847,21 @@
         <v>2020</v>
       </c>
       <c r="N78" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D79" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F79" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N79" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -2872,13 +2869,13 @@
         <v>4</v>
       </c>
       <c r="F80" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G80" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N80" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -2889,13 +2886,13 @@
         <v>42</v>
       </c>
       <c r="F81" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N81" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -2903,21 +2900,21 @@
         <v>45</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D83" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F83" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G83" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N83" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -2936,7 +2933,7 @@
         <v>45</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="88" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -2944,16 +2941,16 @@
         <v>56</v>
       </c>
       <c r="F88" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G88" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="I88" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="L88" s="27" t="s">
         <v>289</v>
-      </c>
-      <c r="G88" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="I88" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="L88" s="27" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="89" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -2972,14 +2969,14 @@
         <v>42</v>
       </c>
       <c r="F91" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="G91" s="24" t="s">
         <v>291</v>
-      </c>
-      <c r="G91" s="24" t="s">
-        <v>292</v>
       </c>
       <c r="M91" s="26"/>
       <c r="N91" s="25" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -2987,19 +2984,19 @@
         <v>45</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M92" s="26"/>
     </row>
     <row r="93" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M93" s="26"/>
     </row>
     <row r="94" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M94" s="26"/>
     </row>
@@ -3019,13 +3016,13 @@
         <v>53</v>
       </c>
       <c r="F98" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="G98" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="N98" s="25" t="s">
         <v>294</v>
-      </c>
-      <c r="G98" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="N98" s="25" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="99" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3033,10 +3030,10 @@
         <v>57</v>
       </c>
       <c r="F99" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G99" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J99" s="27">
         <v>2020</v>
@@ -3045,21 +3042,21 @@
         <v>2020</v>
       </c>
       <c r="N99" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D100" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F100" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G100" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N100" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3067,13 +3064,13 @@
         <v>4</v>
       </c>
       <c r="F101" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G101" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N101" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="102" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3084,13 +3081,13 @@
         <v>42</v>
       </c>
       <c r="F102" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G102" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N102" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3098,21 +3095,21 @@
         <v>45</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="104" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D104" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F104" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G104" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N104" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3131,7 +3128,7 @@
         <v>45</v>
       </c>
       <c r="C108" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3139,16 +3136,16 @@
         <v>56</v>
       </c>
       <c r="F109" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="G109" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="I109" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="L109" s="27" t="s">
         <v>303</v>
-      </c>
-      <c r="G109" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="I109" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="L109" s="27" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="110" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3165,14 +3162,14 @@
         <v>42</v>
       </c>
       <c r="F112" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="G112" s="24" t="s">
         <v>305</v>
-      </c>
-      <c r="G112" s="24" t="s">
-        <v>306</v>
       </c>
       <c r="M112" s="26"/>
       <c r="N112" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -3180,19 +3177,19 @@
         <v>45</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M113" s="26"/>
     </row>
     <row r="114" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M114" s="26"/>
     </row>
     <row r="115" spans="2:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M115" s="26"/>
     </row>
@@ -3208,13 +3205,13 @@
         <v>53</v>
       </c>
       <c r="F119" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="G119" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="N119" s="25" t="s">
         <v>308</v>
-      </c>
-      <c r="G119" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="N119" s="25" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="120" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3222,10 +3219,10 @@
         <v>57</v>
       </c>
       <c r="F120" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G120" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J120" s="27">
         <v>2020</v>
@@ -3234,21 +3231,21 @@
         <v>2020</v>
       </c>
       <c r="N120" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D121" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F121" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G121" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N121" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3256,13 +3253,13 @@
         <v>4</v>
       </c>
       <c r="F122" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G122" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N122" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3273,13 +3270,13 @@
         <v>42</v>
       </c>
       <c r="F123" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G123" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N123" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="124" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3287,21 +3284,21 @@
         <v>45</v>
       </c>
       <c r="C124" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="125" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D125" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F125" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G125" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N125" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" spans="2:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3320,7 +3317,7 @@
         <v>45</v>
       </c>
       <c r="C129" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="130" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3328,16 +3325,16 @@
         <v>56</v>
       </c>
       <c r="F130" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="G130" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="I130" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="L130" s="27" t="s">
         <v>317</v>
-      </c>
-      <c r="G130" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="I130" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="L130" s="27" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="131" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -3396,7 +3393,7 @@
     </row>
     <row r="137" spans="1:13" s="24" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B137" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C137" s="25"/>
       <c r="D137" s="25"/>
@@ -3427,7 +3424,7 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D140" s="2"/>
       <c r="F140" s="2"/>
@@ -3444,10 +3441,10 @@
         <v>56</v>
       </c>
       <c r="F142" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -3455,10 +3452,10 @@
         <v>56</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -3475,10 +3472,10 @@
         <v>56</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.25">
@@ -3486,10 +3483,10 @@
         <v>56</v>
       </c>
       <c r="F146" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.25">
@@ -3507,21 +3504,21 @@
         <v>168</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D149" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F149" s="2" t="s">
+      <c r="G149" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.25">
@@ -3602,13 +3599,13 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D158" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="P158" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="W158" s="2" t="b">
         <v>1</v>
@@ -3616,10 +3613,10 @@
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D159" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P159" t="s">
         <v>184</v>
@@ -3630,13 +3627,13 @@
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D160" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P160" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W160" s="2" t="b">
         <v>1</v>
@@ -3665,10 +3662,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D240"/>
+  <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3769,7 +3766,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -3780,7 +3777,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -3791,13 +3788,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B13" s="2">
         <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3862,10 +3859,10 @@
         <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="D20" t="s">
         <v>67</v>
@@ -3890,10 +3887,10 @@
         <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
@@ -4130,28 +4127,28 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="2">
+        <v>88</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="2">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B54" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -4159,38 +4156,46 @@
         <v>97</v>
       </c>
       <c r="B55" s="2">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="2">
         <v>3</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="2">
+        <v>88</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="2">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B59" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -4198,94 +4203,102 @@
         <v>103</v>
       </c>
       <c r="B60" s="2">
+        <v>2</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="2">
         <v>3</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-    </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="2">
+        <v>88</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="2">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="2">
         <v>2</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B67" s="2">
-        <v>1</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="2">
         <v>2</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" s="2">
-        <v>1</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>326</v>
-      </c>
+      <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>135</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -4293,10 +4306,10 @@
         <v>139</v>
       </c>
       <c r="B73" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -4304,10 +4317,10 @@
         <v>139</v>
       </c>
       <c r="B74" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -4315,52 +4328,59 @@
         <v>139</v>
       </c>
       <c r="B75" s="2">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="2">
         <v>5</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B77" s="2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B78" s="2">
         <v>1</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B78" s="2">
-        <v>2</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>218</v>
+      <c r="C78" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B79" s="2">
+        <v>2</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B80" s="2">
         <v>3</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
@@ -4368,13 +4388,13 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
@@ -4602,10 +4622,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="C217" s="1"/>
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
@@ -4698,6 +4718,10 @@
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="C240" s="1"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+      <c r="C241" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4786,10 +4810,10 @@
         <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>122</v>
@@ -4812,10 +4836,10 @@
         <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H3" t="s">
         <v>122</v>
@@ -4894,8 +4918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4914,10 +4938,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4965,183 +4989,183 @@
         <v>197</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" t="s">
         <v>199</v>
-      </c>
-      <c r="B10" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" t="s">
         <v>201</v>
-      </c>
-      <c r="B11" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" t="s">
         <v>230</v>
-      </c>
-      <c r="B12" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" t="s">
         <v>237</v>
-      </c>
-      <c r="B13" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>334</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>339</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>344</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>349</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5438,10 +5462,10 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -5449,7 +5473,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -5457,31 +5481,31 @@
         <v>4</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -5489,7 +5513,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -5497,7 +5521,7 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -5505,15 +5529,15 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" t="s">
         <v>261</v>
-      </c>
-      <c r="B50" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -5521,7 +5545,7 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -5529,15 +5553,15 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B53" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -5545,7 +5569,7 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -5553,7 +5577,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -5561,15 +5585,15 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B57" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -5577,7 +5601,7 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -5585,15 +5609,15 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -5601,7 +5625,7 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -5609,7 +5633,7 @@
         <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -5617,15 +5641,15 @@
         <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -5633,7 +5657,7 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -5641,15 +5665,15 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -5657,7 +5681,7 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -5665,7 +5689,7 @@
         <v>53</v>
       </c>
       <c r="B69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -5673,15 +5697,15 @@
         <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B71" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -5689,7 +5713,7 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -5697,15 +5721,15 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
